--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\eco\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AFBA6D48-F3F4-441A-A6CB-DB740954ACCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5A1A5A-EBEE-4C70-8B58-2B3A4E4944F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440"/>
+    <workbookView xWindow="14805" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="241">
   <si>
     <t>country</t>
   </si>
@@ -346,9 +359,6 @@
     <t>PSE</t>
   </si>
   <si>
-    <t>Army-Navy-Air Force</t>
-  </si>
-  <si>
     <t>Employment - thousands</t>
   </si>
   <si>
@@ -586,9 +596,6 @@
     <t>PAYEMS</t>
   </si>
   <si>
-    <t>Employment</t>
-  </si>
-  <si>
     <t>Non-farm payroll</t>
   </si>
   <si>
@@ -604,9 +611,6 @@
     <t>LES1252881600Q</t>
   </si>
   <si>
-    <t>Pay</t>
-  </si>
-  <si>
     <t>Median - inflation adjusted</t>
   </si>
   <si>
@@ -746,12 +750,18 @@
   </si>
   <si>
     <t>Services</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Weekly wage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1585,21 +1595,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="8" max="8" width="35.04296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1647,7 +1660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1655,7 +1668,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <f>COUNTIF(B$2:B$39,B2)</f>
+        <f t="shared" ref="C2:C39" si="0">COUNTIF(B$2:B$39,B2)</f>
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -1704,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1725,7 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <f>COUNTIF(B$2:B$39,B3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D3" t="s">
@@ -1761,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1769,7 +1782,7 @@
         <v>39</v>
       </c>
       <c r="C4">
-        <f>COUNTIF(B$2:B$39,B4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -1818,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1839,7 @@
         <v>49</v>
       </c>
       <c r="C5">
-        <f>COUNTIF(B$2:B$39,B5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D5" t="s">
@@ -1875,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +1896,7 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <f>COUNTIF(B$2:B$39,B6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
@@ -1932,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1940,7 +1953,7 @@
         <v>65</v>
       </c>
       <c r="C7">
-        <f>COUNTIF(B$2:B$39,B7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D7" t="s">
@@ -1989,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1997,7 +2010,7 @@
         <v>73</v>
       </c>
       <c r="C8">
-        <f>COUNTIF(B$2:B$39,B8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D8" t="s">
@@ -2046,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2054,7 +2067,7 @@
         <v>81</v>
       </c>
       <c r="C9">
-        <f>COUNTIF(B$2:B$39,B9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" t="s">
@@ -2103,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2111,7 +2124,7 @@
         <v>88</v>
       </c>
       <c r="C10">
-        <f>COUNTIF(B$2:B$39,B10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D10" t="s">
@@ -2160,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2168,7 +2181,7 @@
         <v>97</v>
       </c>
       <c r="C11">
-        <f>COUNTIF(B$2:B$39,B11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D11" t="s">
@@ -2217,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2225,7 +2238,7 @@
         <v>103</v>
       </c>
       <c r="C12">
-        <f>COUNTIF(B$2:B$39,B12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D12" t="s">
@@ -2241,10 +2254,10 @@
         <v>107</v>
       </c>
       <c r="H12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" t="s">
         <v>108</v>
-      </c>
-      <c r="I12" t="s">
-        <v>109</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
@@ -2259,7 +2272,7 @@
         <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
         <v>80</v>
@@ -2274,40 +2287,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>111</v>
       </c>
-      <c r="C13">
-        <f>COUNTIF(B$2:B$39,B13)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>112</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>113</v>
-      </c>
-      <c r="F13" t="s">
-        <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s">
         <v>25</v>
@@ -2316,7 +2329,7 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
         <v>80</v>
@@ -2331,40 +2344,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>117</v>
       </c>
-      <c r="C14">
-        <f>COUNTIF(B$2:B$39,B14)</f>
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>118</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>119</v>
-      </c>
-      <c r="F14" t="s">
-        <v>120</v>
       </c>
       <c r="G14" t="s">
         <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
@@ -2373,7 +2386,7 @@
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
         <v>80</v>
@@ -2388,40 +2401,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>123</v>
       </c>
-      <c r="C15">
-        <f>COUNTIF(B$2:B$39,B15)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>124</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>125</v>
-      </c>
-      <c r="F15" t="s">
-        <v>126</v>
       </c>
       <c r="G15" t="s">
         <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s">
         <v>25</v>
@@ -2430,7 +2443,7 @@
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
         <v>80</v>
@@ -2445,25 +2458,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <f>COUNTIF(B$2:B$39,B16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
         <v>130</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>131</v>
-      </c>
-      <c r="F16" t="s">
-        <v>132</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
@@ -2472,151 +2485,151 @@
         <v>23</v>
       </c>
       <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
         <v>133</v>
       </c>
-      <c r="K16" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>134</v>
-      </c>
-      <c r="M16" t="s">
-        <v>135</v>
       </c>
       <c r="O16" t="s">
         <v>28</v>
       </c>
       <c r="P16" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q16" t="s">
         <v>136</v>
       </c>
-      <c r="Q16" t="s">
-        <v>137</v>
-      </c>
       <c r="R16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17">
-        <f>COUNTIF(B$2:B$39,B17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
         <v>138</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>139</v>
-      </c>
-      <c r="F17" t="s">
-        <v>140</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s">
         <v>133</v>
       </c>
-      <c r="K17" t="s">
-        <v>139</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>134</v>
-      </c>
-      <c r="M17" t="s">
-        <v>135</v>
       </c>
       <c r="O17" t="s">
         <v>28</v>
       </c>
       <c r="P17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q17" t="s">
         <v>136</v>
       </c>
-      <c r="Q17" t="s">
-        <v>137</v>
-      </c>
       <c r="R17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18">
-        <f>COUNTIF(B$2:B$39,B18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
         <v>142</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>143</v>
-      </c>
-      <c r="F18" t="s">
-        <v>144</v>
       </c>
       <c r="H18" t="s">
         <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" t="s">
         <v>133</v>
       </c>
-      <c r="K18" t="s">
-        <v>143</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>134</v>
-      </c>
-      <c r="M18" t="s">
-        <v>135</v>
       </c>
       <c r="O18" t="s">
         <v>28</v>
       </c>
       <c r="P18" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q18" t="s">
         <v>136</v>
       </c>
-      <c r="Q18" t="s">
-        <v>137</v>
-      </c>
       <c r="R18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19">
-        <f>COUNTIF(B$2:B$39,B19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" t="s">
         <v>146</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>147</v>
-      </c>
-      <c r="F19" t="s">
-        <v>148</v>
       </c>
       <c r="H19" t="s">
         <v>54</v>
@@ -2625,202 +2638,202 @@
         <v>55</v>
       </c>
       <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" t="s">
         <v>133</v>
       </c>
-      <c r="K19" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>134</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" t="s">
         <v>135</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
         <v>149</v>
       </c>
-      <c r="P19" t="s">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" t="s">
         <v>136</v>
       </c>
-      <c r="Q19" t="s">
-        <v>137</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20">
-        <f>COUNTIF(B$2:B$39,B20)</f>
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" t="s">
         <v>133</v>
       </c>
-      <c r="K20" t="s">
-        <v>152</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M21" t="s">
         <v>134</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O21" t="s">
+        <v>162</v>
+      </c>
+      <c r="P21" t="s">
         <v>135</v>
       </c>
-      <c r="O20" t="s">
-        <v>156</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="Q21" t="s">
         <v>136</v>
       </c>
-      <c r="Q20" t="s">
-        <v>137</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21">
-        <f>COUNTIF(B$2:B$39,B21)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" t="s">
-        <v>161</v>
-      </c>
-      <c r="I21" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" t="s">
-        <v>159</v>
-      </c>
-      <c r="L21" t="s">
-        <v>134</v>
-      </c>
-      <c r="M21" t="s">
-        <v>135</v>
-      </c>
-      <c r="O21" t="s">
-        <v>163</v>
-      </c>
-      <c r="P21" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>137</v>
-      </c>
       <c r="R21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(B$2:B$39,B22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" t="s">
         <v>164</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>165</v>
-      </c>
-      <c r="F22" t="s">
-        <v>166</v>
       </c>
       <c r="H22" t="s">
         <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
         <v>133</v>
       </c>
-      <c r="K22" t="s">
-        <v>165</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>134</v>
-      </c>
-      <c r="M22" t="s">
-        <v>135</v>
       </c>
       <c r="O22" t="s">
         <v>28</v>
       </c>
       <c r="P22" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q22" t="s">
         <v>136</v>
       </c>
-      <c r="Q22" t="s">
-        <v>137</v>
-      </c>
       <c r="R22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(B$2:B$39,B23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
         <v>168</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>169</v>
-      </c>
-      <c r="F23" t="s">
-        <v>170</v>
       </c>
       <c r="H23" t="s">
         <v>70</v>
@@ -2829,241 +2842,241 @@
         <v>71</v>
       </c>
       <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" t="s">
         <v>133</v>
       </c>
-      <c r="K23" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>134</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
+        <v>170</v>
+      </c>
+      <c r="P23" t="s">
         <v>135</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
+        <v>136</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
         <v>171</v>
       </c>
-      <c r="P23" t="s">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q24" t="s">
         <v>136</v>
       </c>
-      <c r="Q23" t="s">
-        <v>137</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24">
-        <f>COUNTIF(B$2:B$39,B24)</f>
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
         <v>177</v>
       </c>
-      <c r="J24" t="s">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" t="s">
         <v>133</v>
       </c>
-      <c r="K24" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="M25" t="s">
         <v>134</v>
       </c>
-      <c r="M24" t="s">
+      <c r="P25" t="s">
         <v>135</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q25" t="s">
         <v>136</v>
       </c>
-      <c r="Q24" t="s">
-        <v>137</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25">
-        <f>COUNTIF(B$2:B$39,B25)</f>
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H25" t="s">
-        <v>182</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
         <v>183</v>
       </c>
-      <c r="J25" t="s">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" t="s">
+        <v>239</v>
+      </c>
+      <c r="I26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" t="s">
         <v>133</v>
       </c>
-      <c r="K25" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="M26" t="s">
         <v>134</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P26" t="s">
         <v>135</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q26" t="s">
         <v>136</v>
       </c>
-      <c r="Q25" t="s">
-        <v>137</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26">
-        <f>COUNTIF(B$2:B$39,B26)</f>
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
         <v>188</v>
       </c>
-      <c r="I26" t="s">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>189</v>
       </c>
-      <c r="J26" t="s">
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" t="s">
+        <v>240</v>
+      </c>
+      <c r="I27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" t="s">
         <v>133</v>
       </c>
-      <c r="K26" t="s">
-        <v>186</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="M27" t="s">
         <v>134</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P27" t="s">
         <v>135</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q27" t="s">
         <v>136</v>
       </c>
-      <c r="Q26" t="s">
-        <v>137</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27">
-        <f>COUNTIF(B$2:B$39,B27)</f>
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" t="s">
-        <v>193</v>
-      </c>
-      <c r="H27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" t="s">
-        <v>195</v>
-      </c>
-      <c r="J27" t="s">
-        <v>133</v>
-      </c>
-      <c r="K27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" t="s">
-        <v>134</v>
-      </c>
-      <c r="M27" t="s">
-        <v>135</v>
-      </c>
-      <c r="P27" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>137</v>
-      </c>
       <c r="R27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
         <v>88</v>
       </c>
       <c r="C28">
-        <f>COUNTIF(B$2:B$39,B28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H28" t="s">
         <v>93</v>
@@ -3072,46 +3085,46 @@
         <v>94</v>
       </c>
       <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" t="s">
         <v>133</v>
       </c>
-      <c r="K28" t="s">
-        <v>197</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>134</v>
       </c>
-      <c r="M28" t="s">
+      <c r="P28" t="s">
         <v>135</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>136</v>
       </c>
-      <c r="Q28" t="s">
-        <v>137</v>
-      </c>
       <c r="R28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
         <v>97</v>
       </c>
       <c r="C29">
-        <f>COUNTIF(B$2:B$39,B29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H29" t="s">
         <v>101</v>
@@ -3120,91 +3133,91 @@
         <v>94</v>
       </c>
       <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" t="s">
         <v>133</v>
       </c>
-      <c r="K29" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>134</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>135</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>136</v>
       </c>
-      <c r="Q29" t="s">
-        <v>137</v>
-      </c>
       <c r="R29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
         <v>103</v>
       </c>
       <c r="C30">
-        <f>COUNTIF(B$2:B$39,B30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" t="s">
         <v>202</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" t="s">
+        <v>133</v>
+      </c>
+      <c r="M30" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
         <v>203</v>
-      </c>
-      <c r="F30" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30" t="s">
-        <v>205</v>
-      </c>
-      <c r="I30" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" t="s">
-        <v>133</v>
-      </c>
-      <c r="K30" t="s">
-        <v>203</v>
-      </c>
-      <c r="L30" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" t="s">
-        <v>135</v>
-      </c>
-      <c r="P30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>137</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>206</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(B$2:B$39,B31)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F31">
         <v>108785713</v>
@@ -3213,190 +3226,190 @@
         <v>36</v>
       </c>
       <c r="I31" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" t="s">
+        <v>208</v>
+      </c>
+      <c r="M31" t="s">
         <v>209</v>
       </c>
-      <c r="J31" t="s">
+      <c r="P31" t="s">
         <v>210</v>
       </c>
-      <c r="K31" t="s">
-        <v>208</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="Q31" t="s">
         <v>211</v>
       </c>
-      <c r="M31" t="s">
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" t="s">
         <v>212</v>
       </c>
-      <c r="P31" t="s">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>213</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="E32" t="s">
         <v>214</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32">
-        <f>COUNTIF(B$2:B$39,B32)</f>
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" t="s">
-        <v>217</v>
       </c>
       <c r="F32">
         <v>2062809</v>
       </c>
       <c r="H32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I32" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>211</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>218</v>
       </c>
-      <c r="I32" t="s">
+      <c r="E33" t="s">
         <v>219</v>
-      </c>
-      <c r="J32" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32" t="s">
-        <v>217</v>
-      </c>
-      <c r="L32" t="s">
-        <v>211</v>
-      </c>
-      <c r="M32" t="s">
-        <v>212</v>
-      </c>
-      <c r="P32" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>214</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33">
-        <f>COUNTIF(B$2:B$39,B33)</f>
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>221</v>
-      </c>
-      <c r="E33" t="s">
-        <v>222</v>
       </c>
       <c r="F33">
         <v>2062810</v>
       </c>
       <c r="H33" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" t="s">
         <v>219</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" t="s">
+        <v>209</v>
+      </c>
+      <c r="P33" t="s">
         <v>210</v>
       </c>
-      <c r="K33" t="s">
+      <c r="Q33" t="s">
+        <v>211</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" t="s">
         <v>222</v>
-      </c>
-      <c r="L33" t="s">
-        <v>211</v>
-      </c>
-      <c r="M33" t="s">
-        <v>212</v>
-      </c>
-      <c r="P33" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>214</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34">
-        <f>COUNTIF(B$2:B$39,B34)</f>
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>224</v>
-      </c>
-      <c r="E34" t="s">
-        <v>225</v>
       </c>
       <c r="F34">
         <v>2062811</v>
       </c>
       <c r="H34" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="I34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" t="s">
+        <v>209</v>
+      </c>
+      <c r="P34" t="s">
         <v>210</v>
       </c>
-      <c r="K34" t="s">
-        <v>225</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="Q34" t="s">
         <v>211</v>
       </c>
-      <c r="M34" t="s">
-        <v>212</v>
-      </c>
-      <c r="P34" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>214</v>
-      </c>
       <c r="R34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35">
-        <f>COUNTIF(B$2:B$39,B35)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F35">
         <v>2062815</v>
@@ -3405,217 +3418,217 @@
         <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J35" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" t="s">
+        <v>208</v>
+      </c>
+      <c r="M35" t="s">
+        <v>209</v>
+      </c>
+      <c r="P35" t="s">
         <v>210</v>
       </c>
-      <c r="K35" t="s">
+      <c r="Q35" t="s">
+        <v>211</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" t="s">
         <v>227</v>
-      </c>
-      <c r="L35" t="s">
-        <v>211</v>
-      </c>
-      <c r="M35" t="s">
-        <v>212</v>
-      </c>
-      <c r="P35" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>214</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36">
-        <f>COUNTIF(B$2:B$39,B36)</f>
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" t="s">
-        <v>230</v>
       </c>
       <c r="F36">
         <v>2062817</v>
       </c>
       <c r="H36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J36" t="s">
+        <v>207</v>
+      </c>
+      <c r="K36" t="s">
+        <v>227</v>
+      </c>
+      <c r="L36" t="s">
+        <v>208</v>
+      </c>
+      <c r="M36" t="s">
+        <v>209</v>
+      </c>
+      <c r="P36" t="s">
         <v>210</v>
       </c>
-      <c r="K36" t="s">
+      <c r="Q36" t="s">
+        <v>211</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" t="s">
         <v>230</v>
-      </c>
-      <c r="L36" t="s">
-        <v>211</v>
-      </c>
-      <c r="M36" t="s">
-        <v>212</v>
-      </c>
-      <c r="P36" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>214</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>206</v>
-      </c>
-      <c r="B37" t="s">
-        <v>232</v>
-      </c>
-      <c r="C37">
-        <f>COUNTIF(B$2:B$39,B37)</f>
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" t="s">
-        <v>233</v>
       </c>
       <c r="F37">
         <v>62305723</v>
       </c>
       <c r="H37" t="s">
+        <v>231</v>
+      </c>
+      <c r="I37" t="s">
+        <v>232</v>
+      </c>
+      <c r="J37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" t="s">
+        <v>209</v>
+      </c>
+      <c r="P37" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>211</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" t="s">
         <v>234</v>
-      </c>
-      <c r="I37" t="s">
-        <v>235</v>
-      </c>
-      <c r="J37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" t="s">
-        <v>233</v>
-      </c>
-      <c r="L37" t="s">
-        <v>211</v>
-      </c>
-      <c r="M37" t="s">
-        <v>212</v>
-      </c>
-      <c r="P37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>214</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" t="s">
-        <v>236</v>
-      </c>
-      <c r="C38">
-        <f>COUNTIF(B$2:B$39,B38)</f>
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>229</v>
-      </c>
-      <c r="E38" t="s">
-        <v>237</v>
       </c>
       <c r="F38">
         <v>62305725</v>
       </c>
       <c r="H38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I38" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J38" t="s">
+        <v>207</v>
+      </c>
+      <c r="K38" t="s">
+        <v>234</v>
+      </c>
+      <c r="L38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" t="s">
+        <v>209</v>
+      </c>
+      <c r="P38" t="s">
         <v>210</v>
       </c>
-      <c r="K38" t="s">
+      <c r="Q38" t="s">
+        <v>211</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" t="s">
         <v>237</v>
-      </c>
-      <c r="L38" t="s">
-        <v>211</v>
-      </c>
-      <c r="M38" t="s">
-        <v>212</v>
-      </c>
-      <c r="P38" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>214</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>206</v>
-      </c>
-      <c r="B39" t="s">
-        <v>239</v>
-      </c>
-      <c r="C39">
-        <f>COUNTIF(B$2:B$39,B39)</f>
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>229</v>
-      </c>
-      <c r="E39" t="s">
-        <v>240</v>
       </c>
       <c r="F39">
         <v>62305729</v>
       </c>
       <c r="H39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I39" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J39" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" t="s">
+        <v>237</v>
+      </c>
+      <c r="L39" t="s">
+        <v>208</v>
+      </c>
+      <c r="M39" t="s">
+        <v>209</v>
+      </c>
+      <c r="P39" t="s">
         <v>210</v>
       </c>
-      <c r="K39" t="s">
-        <v>240</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="Q39" t="s">
         <v>211</v>
-      </c>
-      <c r="M39" t="s">
-        <v>212</v>
-      </c>
-      <c r="P39" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>214</v>
       </c>
       <c r="R39">
         <v>1</v>
